--- a/output_volume.xlsx
+++ b/output_volume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FILab\BRL\APMS_basic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FILab\BRL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD6A4AF-80CD-4D06-AE41-F91EE081AFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E80ECC6-5A7A-4AE2-B7BF-1509E25D9895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="3375" windowWidth="38610" windowHeight="15345" xr2:uid="{728A9386-1C45-4CA1-88B4-BB58EBA14797}"/>
+    <workbookView xWindow="19860" yWindow="4275" windowWidth="38610" windowHeight="15345" xr2:uid="{728A9386-1C45-4CA1-88B4-BB58EBA14797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,6 @@
     <t>989</t>
   </si>
   <si>
-    <t>0_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>431</t>
   </si>
   <si>
@@ -345,10 +341,6 @@
     <t>542</t>
   </si>
   <si>
-    <t>0_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>158</t>
   </si>
   <si>
@@ -601,10 +593,6 @@
     <t>306</t>
   </si>
   <si>
-    <t>1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>238</t>
   </si>
   <si>
@@ -713,10 +701,6 @@
     <t>495</t>
   </si>
   <si>
-    <t>2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>108</t>
   </si>
   <si>
@@ -828,10 +812,6 @@
     <t>298</t>
   </si>
   <si>
-    <t>3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>300</t>
   </si>
   <si>
@@ -919,10 +899,6 @@
     <t>432</t>
   </si>
   <si>
-    <t>3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>232</t>
   </si>
   <si>
@@ -1007,12 +983,36 @@
     <t>449</t>
   </si>
   <si>
-    <t>4_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>R109</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R106</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R81</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R69</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R28</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R38</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,6 +1051,13 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1092,7 +1099,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,7 +1107,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1425,35 +1431,34 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>292</v>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>322</v>
       </c>
     </row>
@@ -1461,202 +1466,202 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="3">
         <v>118</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="4">
         <v>328</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>293</v>
+      <c r="I2" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="D3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4">
         <v>262</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>107</v>
+      <c r="I3" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="4">
         <v>179</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>294</v>
+      <c r="I4" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" s="4">
         <v>176</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>129</v>
+      <c r="I5" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="4">
         <v>298</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>295</v>
+      <c r="I6" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="4">
         <v>599</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>296</v>
+      <c r="I7" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>989</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>1291</v>
       </c>
     </row>
@@ -1664,28 +1669,28 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1486</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3">
         <v>1026</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>1360</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1028</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>1586</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>1363</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>1699</v>
       </c>
     </row>
@@ -1693,28 +1698,28 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1708</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1055</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>2029</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1478</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>2244</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>1711</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>1723</v>
       </c>
     </row>
@@ -1722,28 +1727,28 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>1569</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1189</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3">
         <v>1732</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>1275</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1869</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>1614</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>1307</v>
       </c>
     </row>
@@ -1751,28 +1756,28 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1247</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1233</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="3">
         <v>1452</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1119</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1563</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>1462</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>1333</v>
       </c>
     </row>
@@ -1780,28 +1785,28 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1235</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1309</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="3">
         <v>1330</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1055</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1452</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>1423</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>1179</v>
       </c>
     </row>
@@ -1809,57 +1814,57 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1270</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1333</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="3">
         <v>1205</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1027</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>1456</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>1370</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>297</v>
+      <c r="I14" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1336</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1350</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="3">
         <v>1520</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1133</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>1709</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>1517</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>1122</v>
       </c>
     </row>
@@ -1867,28 +1872,28 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>1352</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>1445</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="3">
         <v>1515</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1237</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>1752</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>1615</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>1180</v>
       </c>
     </row>
@@ -1896,28 +1901,28 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1487</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1388</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="3">
         <v>1657</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>1342</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>1888</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>1631</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>1219</v>
       </c>
     </row>
@@ -1925,28 +1930,28 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>1488</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>1184</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="3">
         <v>1737</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>1299</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>2281</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>1816</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
     </row>
@@ -1954,28 +1959,28 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>1634</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>1623</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="3">
         <v>2037</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>1696</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>2764</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>1826</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>1577</v>
       </c>
     </row>
@@ -1983,28 +1988,28 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>1651</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>1563</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>1843</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>2807</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>1785</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>1524</v>
       </c>
     </row>
@@ -2012,28 +2017,28 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1724</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>1422</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="3">
         <v>1677</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>1202</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>2215</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>1331</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>1068</v>
       </c>
     </row>
@@ -2041,144 +2046,144 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>1536</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>1224</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="3">
         <v>1367</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>1028</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>1415</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>715</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>298</v>
+      <c r="I22" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>1223</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="4">
         <v>1092</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>299</v>
+      <c r="I23" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H24" s="4">
         <v>836</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>300</v>
+      <c r="I24" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4">
         <v>539</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>301</v>
+      <c r="I25" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H26" s="4">
         <v>398</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2186,173 +2191,173 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H27" s="4">
         <v>310</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>204</v>
+      <c r="I27" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H28" s="4">
         <v>231</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>278</v>
+      <c r="I28" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" s="4">
         <v>182</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>302</v>
+      <c r="I29" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H30" s="4">
         <v>299</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>28</v>
+      <c r="I30" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>610</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>303</v>
+      <c r="I31" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H32" s="4">
         <v>967</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>1226</v>
       </c>
     </row>
@@ -2360,28 +2365,28 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>1381</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="C33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="3">
         <v>1002</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>1243</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="3">
         <v>1548</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>1358</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>1578</v>
       </c>
     </row>
@@ -2389,28 +2394,28 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>1570</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>1018</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>1160</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>2110</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>1505</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>2412</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>1693</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>1719</v>
       </c>
     </row>
@@ -2418,28 +2423,28 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>1427</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>1185</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="3">
         <v>1917</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>1310</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>1752</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>1613</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>1346</v>
       </c>
     </row>
@@ -2447,28 +2452,28 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>1273</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>1372</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="3">
         <v>1401</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>1159</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>1536</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>1466</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>1355</v>
       </c>
     </row>
@@ -2476,28 +2481,28 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>1122</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>1277</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="3">
         <v>1350</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" s="3">
         <v>1463</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>1467</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>1182</v>
       </c>
     </row>
@@ -2505,28 +2510,28 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>1255</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>1208</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="3">
         <v>1249</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>1011</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>1485</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>1364</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>1150</v>
       </c>
     </row>
@@ -2534,28 +2539,28 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>1384</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>1269</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="3">
         <v>1415</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>1128</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>1668</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <v>1450</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>1116</v>
       </c>
     </row>
@@ -2563,28 +2568,28 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>1317</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>1365</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="D40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="3">
         <v>1583</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>1198</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>1784</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <v>1523</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>1150</v>
       </c>
     </row>
@@ -2592,28 +2597,28 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>1351</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>1342</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="D41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="3">
         <v>1603</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>1248</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>1793</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>1588</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>1235</v>
       </c>
     </row>
@@ -2621,28 +2626,28 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>1521</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>1281</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>1733</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>1233</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <v>2249</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>1740</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>1392</v>
       </c>
     </row>
@@ -2650,28 +2655,28 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>1614</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>1458</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="3">
         <v>1856</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>1654</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>2525</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>1693</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>1529</v>
       </c>
     </row>
@@ -2679,28 +2684,28 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>1736</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>1511</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>1914</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>1803</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <v>2765</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <v>1641</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>1508</v>
       </c>
     </row>
@@ -2708,28 +2713,28 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>1619</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>1373</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="3">
         <v>1707</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>1201</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>2049</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <v>1632</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>1037</v>
       </c>
     </row>
@@ -2737,86 +2742,86 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>1551</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>1290</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="3">
         <v>1452</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="F46" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G46" s="3">
         <v>1474</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <v>1556</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>71</v>
+      <c r="I46" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>1279</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="C47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <v>1154</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>195</v>
+      <c r="I47" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H48" s="5">
+      <c r="B48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H48" s="4">
         <v>870</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2824,231 +2829,231 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="B49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H49" s="5">
+      <c r="G49" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H49" s="4">
         <v>604</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>63</v>
+      <c r="I49" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H50" s="5">
+      <c r="B50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H50" s="4">
         <v>358</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>304</v>
+      <c r="I50" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H51" s="5">
+      <c r="B51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="4">
         <v>286</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>305</v>
+      <c r="I51" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H52" s="4">
         <v>205</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H52" s="5">
-        <v>205</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>240</v>
+      <c r="I52" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H53" s="5">
+      <c r="B53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H53" s="4">
         <v>198</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>306</v>
+      <c r="I53" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="5">
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="4">
         <v>308</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>307</v>
+      <c r="I54" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H55" s="5">
+      <c r="B55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H55" s="4">
         <v>601</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>308</v>
+      <c r="I55" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H56" s="5">
+      <c r="B56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H56" s="4">
         <v>907</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="3">
         <v>1249</v>
       </c>
     </row>
@@ -3056,28 +3061,28 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>1464</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="C57" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="3">
         <v>1022</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>1253</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="F57" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="3">
         <v>1539</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <v>1368</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="3">
         <v>1673</v>
       </c>
     </row>
@@ -3085,28 +3090,28 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>1597</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="4">
+      <c r="C58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="3">
         <v>1157</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>2078</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <v>1427</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="3">
         <v>2210</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="4">
         <v>1730</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="3">
         <v>1671</v>
       </c>
     </row>
@@ -3114,28 +3119,28 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>1448</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>1155</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="4">
+      <c r="D59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="3">
         <v>1380</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <v>1208</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="3">
         <v>1447</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="4">
         <v>1384</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="3">
         <v>1154</v>
       </c>
     </row>
@@ -3143,28 +3148,28 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>1155</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>1168</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="D60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="3">
         <v>1304</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>1015</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <v>1419</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="4">
         <v>1299</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="3">
         <v>1137</v>
       </c>
     </row>
@@ -3172,28 +3177,28 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>1205</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>1282</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="3">
         <v>1373</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G61" s="4">
+      <c r="F61" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G61" s="3">
         <v>1609</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="4">
         <v>1474</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="3">
         <v>1220</v>
       </c>
     </row>
@@ -3201,28 +3206,28 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>1220</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>1289</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="D62" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="3">
         <v>1323</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>1012</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="3">
         <v>1590</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="4">
         <v>1413</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="3">
         <v>1108</v>
       </c>
     </row>
@@ -3230,28 +3235,28 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>1355</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>1368</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="D63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="3">
         <v>1528</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>1177</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <v>1709</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="4">
         <v>1522</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="3">
         <v>1080</v>
       </c>
     </row>
@@ -3259,28 +3264,28 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>1413</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>1409</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="4">
+      <c r="D64" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="3">
         <v>1538</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>1254</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <v>1708</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="4">
         <v>1606</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="3">
         <v>1126</v>
       </c>
     </row>
@@ -3288,28 +3293,28 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>1400</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>1372</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="D65" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="3">
         <v>1591</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>1340</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>1848</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <v>1631</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="3">
         <v>1230</v>
       </c>
     </row>
@@ -3317,28 +3322,28 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>1450</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>1304</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" s="4">
+      <c r="D66" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="3">
         <v>1730</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>1274</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="3">
         <v>2002</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="4">
         <v>1664</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="3">
         <v>1196</v>
       </c>
     </row>
@@ -3346,28 +3351,28 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>1425</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>1597</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" s="4">
+      <c r="D67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="3">
         <v>2059</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>1741</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="3">
         <v>2581</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="4">
         <v>1905</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="3">
         <v>1641</v>
       </c>
     </row>
@@ -3375,28 +3380,28 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>1502</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>1410</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" s="4">
+      <c r="D68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="3">
         <v>2021</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>1838</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="3">
         <v>2860</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="4">
         <v>1846</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="3">
         <v>1523</v>
       </c>
     </row>
@@ -3404,28 +3409,28 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>1686</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>1529</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="4">
+      <c r="D69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="3">
         <v>1689</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>1173</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="3">
         <v>2111</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="4">
         <v>1714</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="3">
         <v>1215</v>
       </c>
     </row>
@@ -3433,144 +3438,144 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>1602</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>1235</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="4">
+      <c r="D70" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="3">
         <v>1285</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G70" s="4">
+      <c r="F70" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G70" s="3">
         <v>1440</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="4">
         <v>1478</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>137</v>
+      <c r="I70" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>1246</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G71" s="4">
+      <c r="F71" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71" s="3">
         <v>1032</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="4">
         <v>1103</v>
       </c>
-      <c r="I71" s="4" t="s">
-        <v>309</v>
+      <c r="I71" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>1015</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G72" s="4" t="s">
+      <c r="C72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="4">
         <v>943</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>235</v>
+      <c r="I72" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="B73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H73" s="4">
+        <v>553</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H73" s="5">
-        <v>553</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H74" s="5">
+      <c r="B74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H74" s="4">
         <v>448</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I74" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3578,173 +3583,173 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H75" s="5">
+      <c r="B75" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H75" s="4">
         <v>343</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>65</v>
+      <c r="I75" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H76" s="5">
+      <c r="B76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H76" s="4">
         <v>197</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>310</v>
+      <c r="I76" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="B77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H77" s="4">
         <v>212</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="H77" s="5">
-        <v>212</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>103</v>
+      <c r="I77" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H78" s="5">
+      <c r="B78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H78" s="4">
         <v>333</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>311</v>
+      <c r="I78" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H79" s="5">
+      <c r="B79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H79" s="4">
         <v>588</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>312</v>
+      <c r="I79" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H80" s="5">
+      <c r="B80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H80" s="4">
         <v>971</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="3">
         <v>1302</v>
       </c>
     </row>
@@ -3752,28 +3757,28 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>1489</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="4">
+      <c r="C81" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="3">
         <v>1039</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>1244</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="3">
         <v>1015</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="3">
         <v>1507</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="4">
         <v>1328</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I81" s="3">
         <v>1598</v>
       </c>
     </row>
@@ -3781,28 +3786,28 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>1671</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>1016</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>1217</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <v>2025</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="3">
         <v>1462</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="3">
         <v>2144</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="4">
         <v>1739</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I82" s="3">
         <v>1745</v>
       </c>
     </row>
@@ -3810,28 +3815,28 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>1350</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>1171</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E83" s="4">
+      <c r="D83" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="3">
         <v>1520</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="3">
         <v>1223</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="3">
         <v>1607</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="4">
         <v>1559</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I83" s="3">
         <v>1315</v>
       </c>
     </row>
@@ -3839,28 +3844,28 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>1189</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>1268</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="4">
+      <c r="D84" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E84" s="3">
         <v>1391</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="3">
         <v>1055</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="3">
         <v>1594</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="4">
         <v>1502</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I84" s="3">
         <v>1268</v>
       </c>
     </row>
@@ -3868,28 +3873,28 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>1232</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>1350</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" s="4">
+      <c r="D85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="3">
         <v>1311</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="3">
         <v>1046</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="3">
         <v>1571</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="4">
         <v>1439</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I85" s="3">
         <v>1249</v>
       </c>
     </row>
@@ -3897,28 +3902,28 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>1156</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>1133</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E86" s="4">
+      <c r="D86" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="3">
         <v>1205</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G86" s="4">
+      <c r="F86" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G86" s="3">
         <v>1400</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="4">
         <v>1280</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I86" s="3">
         <v>1020</v>
       </c>
     </row>
@@ -3926,28 +3931,28 @@
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>1326</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>1327</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E87" s="4">
+      <c r="D87" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="3">
         <v>1524</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="3">
         <v>1204</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="3">
         <v>1670</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="4">
         <v>1504</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I87" s="3">
         <v>1104</v>
       </c>
     </row>
@@ -3955,28 +3960,28 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>1384</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>1447</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E88" s="4">
+      <c r="D88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E88" s="3">
         <v>1519</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="3">
         <v>1216</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="3">
         <v>1584</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="4">
         <v>1524</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I88" s="3">
         <v>1161</v>
       </c>
     </row>
@@ -3984,28 +3989,28 @@
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>1343</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>1408</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E89" s="4">
+      <c r="D89" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E89" s="3">
         <v>1513</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="3">
         <v>1357</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="3">
         <v>1832</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="4">
         <v>1705</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I89" s="3">
         <v>1231</v>
       </c>
     </row>
@@ -4013,28 +4018,28 @@
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>1481</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>1365</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E90" s="4">
+      <c r="D90" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90" s="3">
         <v>1812</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="3">
         <v>1336</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="3">
         <v>2059</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="4">
         <v>1740</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="3">
         <v>1427</v>
       </c>
     </row>
@@ -4042,28 +4047,28 @@
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>1603</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>1595</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E91" s="4">
+      <c r="D91" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91" s="3">
         <v>1991</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="3">
         <v>1724</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="3">
         <v>2753</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="4">
         <v>1848</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="3">
         <v>1631</v>
       </c>
     </row>
@@ -4071,28 +4076,28 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>1597</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>1423</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E92" s="4">
+      <c r="D92" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E92" s="3">
         <v>2070</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="3">
         <v>1834</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="3">
         <v>2844</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="4">
         <v>1787</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I92" s="3">
         <v>1589</v>
       </c>
     </row>
@@ -4100,28 +4105,28 @@
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>1695</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>1443</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E93" s="4">
+      <c r="D93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="3">
         <v>1728</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="3">
         <v>1153</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="3">
         <v>2272</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="4">
         <v>1720</v>
       </c>
-      <c r="I93" s="4">
+      <c r="I93" s="3">
         <v>1145</v>
       </c>
     </row>
@@ -4129,28 +4134,28 @@
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>1601</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>1287</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E94" s="4">
+      <c r="D94" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" s="3">
         <v>1444</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="3">
         <v>1056</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="3">
         <v>1526</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="4">
         <v>1616</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4158,289 +4163,289 @@
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>1350</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="C95" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <v>1084</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G95" s="4">
+      <c r="F95" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G95" s="3">
         <v>1185</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="4">
         <v>1223</v>
       </c>
-      <c r="I95" s="4" t="s">
-        <v>313</v>
+      <c r="I95" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>1021</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F96" s="4" t="s">
+      <c r="C96" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="H96" s="5">
+      <c r="G96" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H96" s="4">
         <v>944</v>
       </c>
-      <c r="I96" s="4" t="s">
-        <v>314</v>
+      <c r="I96" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H97" s="5">
+      <c r="B97" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H97" s="4">
         <v>692</v>
       </c>
-      <c r="I97" s="4" t="s">
-        <v>315</v>
+      <c r="I97" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="B98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H98" s="5">
+      <c r="E98" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H98" s="4">
         <v>494</v>
       </c>
-      <c r="I98" s="4" t="s">
-        <v>85</v>
+      <c r="I98" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H99" s="5">
+      <c r="B99" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H99" s="4">
         <v>377</v>
       </c>
-      <c r="I99" s="4" t="s">
-        <v>74</v>
+      <c r="I99" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H100" s="5">
+      <c r="B100" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H100" s="4">
         <v>218</v>
       </c>
-      <c r="I100" s="4" t="s">
-        <v>316</v>
+      <c r="I100" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H101" s="5">
+      <c r="B101" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H101" s="4">
         <v>226</v>
       </c>
-      <c r="I101" s="4" t="s">
-        <v>205</v>
+      <c r="I101" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H102" s="5">
+      <c r="B102" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H102" s="4">
         <v>348</v>
       </c>
-      <c r="I102" s="4" t="s">
-        <v>28</v>
+      <c r="I102" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D103" s="4" t="s">
+      <c r="B103" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H103" s="5">
+      <c r="E103" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H103" s="4">
         <v>589</v>
       </c>
-      <c r="I103" s="4" t="s">
-        <v>317</v>
+      <c r="I103" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H104" s="5">
+      <c r="B104" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H104" s="4">
         <v>916</v>
       </c>
-      <c r="I104" s="4">
+      <c r="I104" s="3">
         <v>1267</v>
       </c>
     </row>
@@ -4448,28 +4453,28 @@
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>1311</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <v>1009</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="3">
         <v>1009</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="3">
         <v>1224</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="3">
         <v>1044</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="3">
         <v>1520</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="4">
         <v>1359</v>
       </c>
-      <c r="I105" s="4">
+      <c r="I105" s="3">
         <v>1609</v>
       </c>
     </row>
@@ -4477,28 +4482,28 @@
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>1674</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D106" s="4">
+      <c r="C106" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="3">
         <v>1166</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="3">
         <v>2015</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="3">
         <v>1481</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="3">
         <v>2038</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="4">
         <v>1692</v>
       </c>
-      <c r="I106" s="4">
+      <c r="I106" s="3">
         <v>1741</v>
       </c>
     </row>
@@ -4506,28 +4511,28 @@
       <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>1460</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <v>1105</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E107" s="4">
+      <c r="D107" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E107" s="3">
         <v>1616</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="3">
         <v>1346</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107" s="3">
         <v>1696</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="4">
         <v>1636</v>
       </c>
-      <c r="I107" s="4">
+      <c r="I107" s="3">
         <v>1297</v>
       </c>
     </row>
@@ -4535,28 +4540,28 @@
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <v>1350</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <v>1287</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E108" s="4">
+      <c r="D108" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E108" s="3">
         <v>1514</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="3">
         <v>1129</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108" s="3">
         <v>1561</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="4">
         <v>1439</v>
       </c>
-      <c r="I108" s="4">
+      <c r="I108" s="3">
         <v>1323</v>
       </c>
     </row>
@@ -4564,28 +4569,28 @@
       <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>1294</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <v>1238</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E109" s="4">
+      <c r="D109" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" s="3">
         <v>1381</v>
       </c>
-      <c r="F109" s="4">
+      <c r="F109" s="3">
         <v>1159</v>
       </c>
-      <c r="G109" s="4">
+      <c r="G109" s="3">
         <v>1607</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H109" s="4">
         <v>1468</v>
       </c>
-      <c r="I109" s="4">
+      <c r="I109" s="3">
         <v>1338</v>
       </c>
     </row>
@@ -4593,28 +4598,28 @@
       <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>1182</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>1243</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E110" s="4">
+      <c r="D110" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E110" s="3">
         <v>1120</v>
       </c>
-      <c r="F110" s="4">
+      <c r="F110" s="3">
         <v>1030</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G110" s="3">
         <v>1611</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110" s="4">
         <v>1396</v>
       </c>
-      <c r="I110" s="4">
+      <c r="I110" s="3">
         <v>1141</v>
       </c>
     </row>
@@ -4622,28 +4627,28 @@
       <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <v>1362</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>1339</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E111" s="4">
+      <c r="D111" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E111" s="3">
         <v>1570</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="3">
         <v>1228</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="3">
         <v>1858</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H111" s="4">
         <v>1635</v>
       </c>
-      <c r="I111" s="4">
+      <c r="I111" s="3">
         <v>1207</v>
       </c>
     </row>
@@ -4651,28 +4656,28 @@
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>1429</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>1361</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E112" s="4">
+      <c r="D112" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" s="3">
         <v>1660</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="3">
         <v>1374</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="3">
         <v>1859</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="4">
         <v>1655</v>
       </c>
-      <c r="I112" s="4">
+      <c r="I112" s="3">
         <v>1310</v>
       </c>
     </row>
@@ -4680,28 +4685,28 @@
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <v>1451</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>1160</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E113" s="4">
+      <c r="D113" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="3">
         <v>1726</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="3">
         <v>1473</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="3">
         <v>2045</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="4">
         <v>1754</v>
       </c>
-      <c r="I113" s="4">
+      <c r="I113" s="3">
         <v>1340</v>
       </c>
     </row>
@@ -4709,28 +4714,28 @@
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <v>1509</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>1028</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E114" s="4">
+      <c r="D114" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E114" s="3">
         <v>1910</v>
       </c>
-      <c r="F114" s="4">
+      <c r="F114" s="3">
         <v>1428</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="3">
         <v>2283</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="4">
         <v>1776</v>
       </c>
-      <c r="I114" s="4">
+      <c r="I114" s="3">
         <v>1517</v>
       </c>
     </row>
@@ -4738,28 +4743,28 @@
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <v>1596</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>1172</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E115" s="4">
+      <c r="D115" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E115" s="3">
         <v>2099</v>
       </c>
-      <c r="F115" s="4">
+      <c r="F115" s="3">
         <v>1663</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="3">
         <v>2592</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H115" s="4">
         <v>1786</v>
       </c>
-      <c r="I115" s="4">
+      <c r="I115" s="3">
         <v>1589</v>
       </c>
     </row>
@@ -4767,28 +4772,28 @@
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>1612</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>1205</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="4">
+      <c r="D116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="3">
         <v>2031</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="3">
         <v>1815</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="3">
         <v>2859</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116" s="4">
         <v>1726</v>
       </c>
-      <c r="I116" s="4">
+      <c r="I116" s="3">
         <v>1564</v>
       </c>
     </row>
@@ -4796,28 +4801,28 @@
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>1603</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>1399</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E117" s="4">
+      <c r="D117" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E117" s="3">
         <v>1798</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F117" s="3">
         <v>1272</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="3">
         <v>2452</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="4">
         <v>1831</v>
       </c>
-      <c r="I117" s="4">
+      <c r="I117" s="3">
         <v>1233</v>
       </c>
     </row>
@@ -4825,28 +4830,28 @@
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>1622</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>1193</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E118" s="4">
+      <c r="D118" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" s="3">
         <v>1545</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="3">
         <v>1048</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="3">
         <v>1873</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118" s="4">
         <v>1798</v>
       </c>
-      <c r="I118" s="4" t="s">
+      <c r="I118" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4854,87 +4859,87 @@
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <v>1494</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>1043</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E119" s="4">
+      <c r="D119" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E119" s="3">
         <v>1319</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G119" s="4">
+      <c r="F119" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G119" s="3">
         <v>1353</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="4">
         <v>1477</v>
       </c>
-      <c r="I119" s="4" t="s">
-        <v>318</v>
+      <c r="I119" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <v>1302</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E120" s="4">
+      <c r="C120" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E120" s="3">
         <v>1014</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G120" s="4">
+      <c r="F120" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G120" s="3">
         <v>1282</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="4">
         <v>1323</v>
       </c>
-      <c r="I120" s="4" t="s">
-        <v>319</v>
+      <c r="I120" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H121" s="5">
+      <c r="C121" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H121" s="4">
         <v>873</v>
       </c>
-      <c r="I121" s="4" t="s">
-        <v>320</v>
+      <c r="I121" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
